--- a/output/GiDietPhys.xlsx
+++ b/output/GiDietPhys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usu-my.sharepoint.com/personal/a02308724_aggies_usu_edu/Documents/Desktop/ASU green iguana 2021/greeniguanaAnalysis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{900FFE36-CE08-4829-B466-D22F1D4444E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{310C2D80-4934-4AA7-8A72-7F4895AA6089}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="8_{900FFE36-CE08-4829-B466-D22F1D4444E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A608BBC-09E8-493E-A0E9-5CE20DC22EFD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C910DBE3-F025-4A65-8898-D5F08109D607}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
   <si>
     <t>Water Group</t>
   </si>
@@ -96,15 +96,16 @@
     <t>Mass</t>
   </si>
   <si>
-    <t>SD</t>
+    <t>SE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -285,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -334,29 +335,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -382,14 +371,29 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B60E61-B073-46FB-97F3-57E4E75BC566}">
   <dimension ref="A1:BE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -767,25 +771,25 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="26">
         <v>80.2</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="26">
         <v>46.8</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="26">
         <v>76.5</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="26">
         <v>59</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="27">
         <v>0.08</v>
       </c>
     </row>
@@ -794,23 +798,23 @@
       <c r="B4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="29">
         <v>6.04</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="29">
         <v>7.01</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="29">
         <v>7.51</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="29">
         <v>5.3</v>
       </c>
-      <c r="I4" s="34"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
@@ -833,7 +837,7 @@
       <c r="H5" s="36">
         <v>18</v>
       </c>
-      <c r="I5" s="37"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
@@ -842,17 +846,25 @@
       <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23">
+      <c r="C6" s="29">
+        <v>2.35</v>
+      </c>
+      <c r="D6" s="29">
+        <v>2.65</v>
+      </c>
+      <c r="E6" s="35">
         <v>0.50329999999999997</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23">
+      <c r="G6" s="29">
+        <v>1.19</v>
+      </c>
+      <c r="H6" s="29">
+        <v>1.65</v>
+      </c>
+      <c r="I6" s="21">
         <v>0.19</v>
       </c>
     </row>
@@ -861,26 +873,46 @@
       <c r="B7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24" t="s">
+      <c r="C7" s="29">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0.308</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="29">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="B8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="36">
+        <v>18</v>
+      </c>
+      <c r="D8" s="36">
+        <v>16</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="36">
+        <v>16</v>
+      </c>
+      <c r="H8" s="36">
+        <v>17</v>
+      </c>
+      <c r="I8" s="23"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -937,17 +969,25 @@
       <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23">
+      <c r="C9" s="29">
+        <v>2.69</v>
+      </c>
+      <c r="D9" s="29">
+        <v>2.96</v>
+      </c>
+      <c r="E9" s="21">
         <v>0.55500000000000005</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23">
+      <c r="G9" s="29">
+        <v>1.9</v>
+      </c>
+      <c r="H9" s="29">
+        <v>2.27</v>
+      </c>
+      <c r="I9" s="21">
         <v>0.35199999999999998</v>
       </c>
       <c r="J9" s="6"/>
@@ -1004,15 +1044,23 @@
       <c r="B10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24" t="s">
+      <c r="C10" s="29">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="29">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0.311</v>
+      </c>
+      <c r="I10" s="21"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -1064,14 +1112,26 @@
     </row>
     <row r="11" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
+      <c r="B11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="36">
+        <v>18</v>
+      </c>
+      <c r="D11" s="36">
+        <v>16</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="36">
+        <v>16</v>
+      </c>
+      <c r="H11" s="36">
+        <v>17</v>
+      </c>
+      <c r="I11" s="23"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1128,17 +1188,25 @@
       <c r="B12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="20" t="s">
+      <c r="C12" s="20">
+        <v>216</v>
+      </c>
+      <c r="D12" s="20">
+        <v>342</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23">
+      <c r="G12" s="20">
+        <v>259</v>
+      </c>
+      <c r="H12" s="20">
+        <v>307</v>
+      </c>
+      <c r="I12" s="21">
         <v>0.13</v>
       </c>
       <c r="J12" s="6"/>
@@ -1195,15 +1263,23 @@
       <c r="B13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24" t="s">
+      <c r="C13" s="20">
+        <v>11.9</v>
+      </c>
+      <c r="D13" s="20">
+        <v>22.1</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
+      <c r="G13" s="20">
+        <v>11.2</v>
+      </c>
+      <c r="H13" s="20">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I13" s="21"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -1255,14 +1331,26 @@
     </row>
     <row r="14" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
+      <c r="B14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="36">
+        <v>18</v>
+      </c>
+      <c r="D14" s="36">
+        <v>18</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="36">
+        <v>18</v>
+      </c>
+      <c r="H14" s="36">
+        <v>18</v>
+      </c>
+      <c r="I14" s="23"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -1319,17 +1407,17 @@
       <c r="B15" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="20" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="20" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="34" t="s">
         <v>4</v>
       </c>
       <c r="J15" s="6"/>
@@ -1386,15 +1474,15 @@
       <c r="B16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -1446,14 +1534,18 @@
     </row>
     <row r="17" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
+      <c r="B17" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -1510,17 +1602,25 @@
       <c r="B18" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="20" t="s">
+      <c r="C18" s="29">
+        <v>1.52</v>
+      </c>
+      <c r="D18" s="29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23">
+      <c r="G18" s="29">
+        <v>1.44</v>
+      </c>
+      <c r="H18" s="29">
+        <v>1.52</v>
+      </c>
+      <c r="I18" s="21">
         <v>0.99</v>
       </c>
       <c r="J18" s="6"/>
@@ -1577,15 +1677,23 @@
       <c r="B19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24" t="s">
+      <c r="C19" s="29">
+        <v>0.153</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0.439</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="29">
+        <v>0.152</v>
+      </c>
+      <c r="H19" s="29">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="I19" s="21"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1637,14 +1745,26 @@
     </row>
     <row r="20" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
+      <c r="B20" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="36">
+        <v>17</v>
+      </c>
+      <c r="D20" s="36">
+        <v>18</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="36">
+        <v>16</v>
+      </c>
+      <c r="H20" s="36">
+        <v>17</v>
+      </c>
+      <c r="I20" s="23"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -1701,17 +1821,25 @@
       <c r="B21" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="20" t="s">
+      <c r="C21" s="29">
+        <v>1.54</v>
+      </c>
+      <c r="D21" s="29">
+        <v>2.96</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23">
+      <c r="G21" s="29">
+        <v>1.51</v>
+      </c>
+      <c r="H21" s="29">
+        <v>1.32</v>
+      </c>
+      <c r="I21" s="21">
         <v>0.09</v>
       </c>
       <c r="J21" s="6"/>
@@ -1768,15 +1896,23 @@
       <c r="B22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24" t="s">
+      <c r="C22" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="D22" s="29">
+        <v>0.377</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H22" s="29">
+        <v>0.1113</v>
+      </c>
+      <c r="I22" s="21"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1828,14 +1964,26 @@
     </row>
     <row r="23" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
+      <c r="B23" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="36">
+        <v>17</v>
+      </c>
+      <c r="D23" s="36">
+        <v>18</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="36">
+        <v>16</v>
+      </c>
+      <c r="H23" s="36">
+        <v>17</v>
+      </c>
+      <c r="I23" s="23"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -1892,17 +2040,25 @@
       <c r="B24" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23">
+      <c r="C24" s="29">
+        <v>-0.26900000000000002</v>
+      </c>
+      <c r="D24" s="29">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="E24" s="21">
         <v>0.21</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23">
+      <c r="G24" s="29">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="H24" s="29">
+        <v>-0.38100000000000001</v>
+      </c>
+      <c r="I24" s="21">
         <v>0.25</v>
       </c>
       <c r="J24" s="6"/>
@@ -1959,15 +2115,23 @@
       <c r="B25" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24" t="s">
+      <c r="C25" s="29">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="D25" s="29">
+        <v>0.315</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
+      <c r="G25" s="29">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="H25" s="29">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="I25" s="21"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -2019,14 +2183,26 @@
     </row>
     <row r="26" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="B26" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="36">
+        <v>18</v>
+      </c>
+      <c r="D26" s="36">
+        <v>18</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="36">
+        <v>18</v>
+      </c>
+      <c r="H26" s="36">
+        <v>17</v>
+      </c>
+      <c r="I26" s="23"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -2083,17 +2259,17 @@
       <c r="B27" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21">
         <v>0.27</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23">
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21">
         <v>0.314</v>
       </c>
       <c r="J27" s="6"/>
@@ -2150,15 +2326,15 @@
       <c r="B28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -2210,14 +2386,18 @@
     </row>
     <row r="29" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29"/>
+      <c r="B29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
@@ -2274,17 +2454,17 @@
       <c r="B30" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21">
         <v>0.41</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23">
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="21">
         <v>0.2</v>
       </c>
       <c r="J30" s="6"/>
@@ -2341,15 +2521,15 @@
       <c r="B31" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -2401,14 +2581,18 @@
     </row>
     <row r="32" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
+      <c r="B32" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -2465,17 +2649,25 @@
       <c r="B33" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="20" t="s">
+      <c r="C33" s="20">
+        <v>53.6</v>
+      </c>
+      <c r="D33" s="20">
+        <v>58.1</v>
+      </c>
+      <c r="E33" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23">
+      <c r="G33" s="20">
+        <v>53.3</v>
+      </c>
+      <c r="H33" s="20">
+        <v>54.4</v>
+      </c>
+      <c r="I33" s="21">
         <v>0.39</v>
       </c>
       <c r="J33" s="6"/>
@@ -2532,15 +2724,23 @@
       <c r="B34" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24" t="s">
+      <c r="C34" s="20">
+        <v>2.81</v>
+      </c>
+      <c r="D34" s="20">
+        <v>2.77</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
+      <c r="G34" s="20">
+        <v>3.36</v>
+      </c>
+      <c r="H34" s="20">
+        <v>3.06</v>
+      </c>
+      <c r="I34" s="21"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -2592,14 +2792,26 @@
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
+      <c r="B35" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="22">
+        <v>18</v>
+      </c>
+      <c r="D35" s="22">
+        <v>18</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="22">
+        <v>18</v>
+      </c>
+      <c r="H35" s="22">
+        <v>18</v>
+      </c>
+      <c r="I35" s="23"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>

--- a/output/GiDietPhys.xlsx
+++ b/output/GiDietPhys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usu-my.sharepoint.com/personal/a02308724_aggies_usu_edu/Documents/Desktop/ASU green iguana 2021/greeniguanaAnalysis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="8_{900FFE36-CE08-4829-B466-D22F1D4444E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A608BBC-09E8-493E-A0E9-5CE20DC22EFD}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="8_{900FFE36-CE08-4829-B466-D22F1D4444E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B79CAAD-306B-4582-BE38-FA4C33E4985F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C910DBE3-F025-4A65-8898-D5F08109D607}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="23">
   <si>
     <t>Water Group</t>
   </si>
@@ -98,6 +98,12 @@
   <si>
     <t>SE</t>
   </si>
+  <si>
+    <t>Δ in water group after diet treatment</t>
+  </si>
+  <si>
+    <t>Δ in dextrose group after diet treatment</t>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +113,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +145,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -286,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -341,15 +354,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -394,6 +401,54 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B60E61-B073-46FB-97F3-57E4E75BC566}">
-  <dimension ref="A1:BE65"/>
+  <dimension ref="A1:BC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -720,9 +775,13 @@
     <col min="1" max="1" width="11.7265625" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" style="2" customWidth="1"/>
     <col min="3" max="10" width="9.90625" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="13" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="17" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="15"/>
       <c r="C1" s="11" t="s">
@@ -737,8 +796,23 @@
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+    </row>
+    <row r="2" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -763,164 +837,260 @@
         <v>8</v>
       </c>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="K2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="24">
+        <v>-33.345999999999997</v>
+      </c>
+      <c r="N2" s="49">
+        <v>-17.513999999999999</v>
+      </c>
+      <c r="O2" s="48">
+        <v>0.187</v>
+      </c>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="24">
         <v>80.2</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="24">
         <v>46.8</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="24">
         <v>76.5</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="24">
         <v>59</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="25">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="K3" s="7"/>
+      <c r="L3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="27">
+        <v>6.2969999999999997</v>
+      </c>
+      <c r="N3" s="28">
+        <v>9.8930000000000007</v>
+      </c>
+      <c r="O3" s="45"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>6.04</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <v>7.01</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="27">
         <v>7.51</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="27">
         <v>5.3</v>
       </c>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="I4" s="28"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="34">
+        <v>18</v>
+      </c>
+      <c r="N4" s="35">
+        <v>18</v>
+      </c>
+      <c r="O4" s="46"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="34">
         <v>18</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="34">
         <v>18</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <v>18</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="34">
         <v>18</v>
       </c>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="I5" s="30"/>
+      <c r="K5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="N5" s="50">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="O5" s="48">
+        <v>0.66869999999999996</v>
+      </c>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="27"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <v>2.35</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="27">
         <v>2.65</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="33">
         <v>0.50329999999999997</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="27">
         <v>1.19</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="27">
         <v>1.65</v>
       </c>
       <c r="I6" s="21">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="K6" s="7"/>
+      <c r="L6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="27">
+        <v>0.36</v>
+      </c>
+      <c r="N6" s="28">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="O6" s="45"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="27">
         <v>0.32900000000000001</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="27">
         <v>0.308</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="27">
         <v>0.26700000000000002</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="27">
         <v>0.26900000000000002</v>
       </c>
       <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="K7" s="8"/>
+      <c r="L7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="34">
+        <v>16</v>
+      </c>
+      <c r="N7" s="35">
+        <v>15</v>
+      </c>
+      <c r="O7" s="46"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="20"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="34">
         <v>18</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="34">
         <v>16</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="34">
         <v>16</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="34">
         <v>17</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="K8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="27">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="N8" s="50">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="O8" s="48">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -959,45 +1129,49 @@
       <c r="BA8" s="6"/>
       <c r="BB8" s="6"/>
       <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="27">
         <v>2.69</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="27">
         <v>2.96</v>
       </c>
       <c r="E9" s="21">
         <v>0.55500000000000005</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="27">
         <v>1.9</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="27">
         <v>2.27</v>
       </c>
       <c r="I9" s="21">
         <v>0.35199999999999998</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="27">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="N9" s="28">
+        <v>0.439</v>
+      </c>
+      <c r="O9" s="45"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="20"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -1036,39 +1210,43 @@
       <c r="BA9" s="6"/>
       <c r="BB9" s="6"/>
       <c r="BC9" s="6"/>
-      <c r="BD9" s="6"/>
-      <c r="BE9" s="6"/>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="27">
         <v>0.38100000000000001</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="27">
         <v>0.35499999999999998</v>
       </c>
       <c r="E10" s="21"/>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="27">
         <v>0.36899999999999999</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="27">
         <v>0.311</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="34">
+        <v>16</v>
+      </c>
+      <c r="N10" s="35">
+        <v>15</v>
+      </c>
+      <c r="O10" s="46"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="20"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -1107,39 +1285,47 @@
       <c r="BA10" s="6"/>
       <c r="BB10" s="6"/>
       <c r="BC10" s="6"/>
-      <c r="BD10" s="6"/>
-      <c r="BE10" s="6"/>
-    </row>
-    <row r="11" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="34">
         <v>18</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="34">
         <v>16</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38" t="s">
+      <c r="E11" s="35"/>
+      <c r="F11" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <v>16</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="34">
         <v>17</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="27">
+        <v>126.833</v>
+      </c>
+      <c r="N11" s="50">
+        <v>47.944000000000003</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="20"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -1178,10 +1364,8 @@
       <c r="BA11" s="6"/>
       <c r="BB11" s="6"/>
       <c r="BC11" s="6"/>
-      <c r="BD11" s="6"/>
-      <c r="BE11" s="6"/>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -1194,10 +1378,10 @@
       <c r="D12" s="20">
         <v>342</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="26" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="20">
@@ -1210,13 +1394,19 @@
         <v>0.13</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="27">
+        <v>24.036999999999999</v>
+      </c>
+      <c r="N12" s="28">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="O12" s="45"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -1255,10 +1445,8 @@
       <c r="BA12" s="6"/>
       <c r="BB12" s="6"/>
       <c r="BC12" s="6"/>
-      <c r="BD12" s="6"/>
-      <c r="BE12" s="6"/>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="17" t="s">
         <v>20</v>
@@ -1270,7 +1458,7 @@
         <v>22.1</v>
       </c>
       <c r="E13" s="21"/>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="20">
@@ -1281,13 +1469,19 @@
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="34">
+        <v>18</v>
+      </c>
+      <c r="N13" s="35">
+        <v>18</v>
+      </c>
+      <c r="O13" s="46"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -1326,39 +1520,47 @@
       <c r="BA13" s="6"/>
       <c r="BB13" s="6"/>
       <c r="BC13" s="6"/>
-      <c r="BD13" s="6"/>
-      <c r="BE13" s="6"/>
-    </row>
-    <row r="14" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="34">
         <v>18</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="34">
         <v>18</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="34">
         <v>18</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="34">
         <v>18</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="27">
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="N14" s="50">
+        <v>0.28660000000000002</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="20"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -1397,37 +1599,49 @@
       <c r="BA14" s="6"/>
       <c r="BB14" s="6"/>
       <c r="BC14" s="6"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="34" t="s">
+      <c r="C15" s="37">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="D15" s="37">
+        <v>1.45</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="34" t="s">
+      <c r="G15" s="37">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="H15" s="37">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="I15" s="32" t="s">
         <v>4</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="27">
+        <v>0.436</v>
+      </c>
+      <c r="N15" s="28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O15" s="45"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="43"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -1466,31 +1680,43 @@
       <c r="BA15" s="6"/>
       <c r="BB15" s="6"/>
       <c r="BC15" s="6"/>
-      <c r="BD15" s="6"/>
-      <c r="BE15" s="6"/>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="C16" s="37">
+        <v>0.04</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0.40899999999999997</v>
+      </c>
       <c r="E16" s="21"/>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="G16" s="37">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="H16" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="I16" s="21"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="34">
+        <v>17</v>
+      </c>
+      <c r="N16" s="35">
+        <v>15</v>
+      </c>
+      <c r="O16" s="46"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="20"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
@@ -1529,31 +1755,47 @@
       <c r="BA16" s="6"/>
       <c r="BB16" s="6"/>
       <c r="BC16" s="6"/>
-      <c r="BD16" s="6"/>
-      <c r="BE16" s="6"/>
-    </row>
-    <row r="17" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="38" t="s">
+      <c r="C17" s="34">
+        <v>17</v>
+      </c>
+      <c r="D17" s="34">
+        <v>18</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
+      <c r="G17" s="34">
+        <v>16</v>
+      </c>
+      <c r="H17" s="34">
+        <v>17</v>
+      </c>
+      <c r="I17" s="22"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="K17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="27">
+        <v>2.536</v>
+      </c>
+      <c r="N17" s="50">
+        <v>-2E-3</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="20"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
@@ -1592,45 +1834,49 @@
       <c r="BA17" s="6"/>
       <c r="BB17" s="6"/>
       <c r="BC17" s="6"/>
-      <c r="BD17" s="6"/>
-      <c r="BE17" s="6"/>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="27">
         <v>1.52</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="27">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="27">
         <v>1.44</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="27">
         <v>1.52</v>
       </c>
       <c r="I18" s="21">
         <v>0.99</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="27">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="N18" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="O18" s="45"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="20"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -1669,39 +1915,43 @@
       <c r="BA18" s="6"/>
       <c r="BB18" s="6"/>
       <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-    </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="27">
         <v>0.153</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="27">
         <v>0.439</v>
       </c>
       <c r="E19" s="21"/>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="27">
         <v>0.152</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="27">
         <v>0.13100000000000001</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="34">
+        <v>17</v>
+      </c>
+      <c r="N19" s="35">
+        <v>15</v>
+      </c>
+      <c r="O19" s="46"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="20"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
@@ -1740,39 +1990,47 @@
       <c r="BA19" s="6"/>
       <c r="BB19" s="6"/>
       <c r="BC19" s="6"/>
-      <c r="BD19" s="6"/>
-      <c r="BE19" s="6"/>
-    </row>
-    <row r="20" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="34">
         <v>17</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="34">
         <v>18</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38" t="s">
+      <c r="E20" s="35"/>
+      <c r="F20" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="34">
         <v>16</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="34">
         <v>17</v>
       </c>
-      <c r="I20" s="23"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="K20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="27">
+        <v>1.369</v>
+      </c>
+      <c r="N20" s="49">
+        <v>-0.25600000000000001</v>
+      </c>
+      <c r="O20" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="20"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
@@ -1811,45 +2069,49 @@
       <c r="BA20" s="6"/>
       <c r="BB20" s="6"/>
       <c r="BC20" s="6"/>
-      <c r="BD20" s="6"/>
-      <c r="BE20" s="6"/>
-    </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="27">
         <v>1.54</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="27">
         <v>2.96</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="27">
         <v>1.51</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="27">
         <v>1.32</v>
       </c>
       <c r="I21" s="21">
         <v>0.09</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="27">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="N21" s="50">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="O21" s="45"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="20"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
@@ -1888,39 +2150,43 @@
       <c r="BA21" s="6"/>
       <c r="BB21" s="6"/>
       <c r="BC21" s="6"/>
-      <c r="BD21" s="6"/>
-      <c r="BE21" s="6"/>
-    </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="27">
         <v>0.125</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="27">
         <v>0.377</v>
       </c>
       <c r="E22" s="21"/>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="27">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="27">
         <v>0.1113</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="34">
+        <v>17</v>
+      </c>
+      <c r="N22" s="51">
+        <v>15</v>
+      </c>
+      <c r="O22" s="46"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="20"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -1959,39 +2225,47 @@
       <c r="BA22" s="6"/>
       <c r="BB22" s="6"/>
       <c r="BC22" s="6"/>
-      <c r="BD22" s="6"/>
-      <c r="BE22" s="6"/>
-    </row>
-    <row r="23" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="34">
         <v>17</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="34">
         <v>18</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="38" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="34">
         <v>16</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="34">
         <v>17</v>
       </c>
-      <c r="I23" s="23"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
+      <c r="K23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="27">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="N23" s="28">
+        <v>-0.64200000000000002</v>
+      </c>
+      <c r="O23" s="48">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
@@ -2030,45 +2304,49 @@
       <c r="BA23" s="6"/>
       <c r="BB23" s="6"/>
       <c r="BC23" s="6"/>
-      <c r="BD23" s="6"/>
-      <c r="BE23" s="6"/>
-    </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="27">
         <v>-0.26900000000000002</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="27">
         <v>0.45600000000000002</v>
       </c>
       <c r="E24" s="21">
         <v>0.21</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="27">
         <v>0.26900000000000002</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="27">
         <v>-0.38100000000000001</v>
       </c>
       <c r="I24" s="21">
         <v>0.25</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="27">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="N24" s="28">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="O24" s="45"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="20"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
@@ -2107,39 +2385,43 @@
       <c r="BA24" s="6"/>
       <c r="BB24" s="6"/>
       <c r="BC24" s="6"/>
-      <c r="BD24" s="6"/>
-      <c r="BE24" s="6"/>
-    </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="27">
         <v>0.39800000000000002</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="27">
         <v>0.315</v>
       </c>
       <c r="E25" s="21"/>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="27">
         <v>0.32300000000000001</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="27">
         <v>0.33800000000000002</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="34">
+        <v>18</v>
+      </c>
+      <c r="N25" s="51">
+        <v>17</v>
+      </c>
+      <c r="O25" s="46"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="20"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
@@ -2178,39 +2460,47 @@
       <c r="BA25" s="6"/>
       <c r="BB25" s="6"/>
       <c r="BC25" s="6"/>
-      <c r="BD25" s="6"/>
-      <c r="BE25" s="6"/>
-    </row>
-    <row r="26" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="34">
         <v>18</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="34">
         <v>18</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="38" t="s">
+      <c r="E26" s="22"/>
+      <c r="F26" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="34">
         <v>18</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="34">
         <v>17</v>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="K26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="27">
+        <v>-0.37</v>
+      </c>
+      <c r="N26" s="28">
+        <v>0.35</v>
+      </c>
+      <c r="O26" s="48">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="20"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
@@ -2249,37 +2539,49 @@
       <c r="BA26" s="6"/>
       <c r="BB26" s="6"/>
       <c r="BC26" s="6"/>
-      <c r="BD26" s="6"/>
-      <c r="BE26" s="6"/>
-    </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="C27" s="27">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="D27" s="27">
+        <v>-0.128</v>
+      </c>
       <c r="E27" s="21">
         <v>0.27</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="G27" s="27">
+        <v>-0.24299999999999999</v>
+      </c>
+      <c r="H27" s="27">
+        <v>0.13600000000000001</v>
+      </c>
       <c r="I27" s="21">
         <v>0.314</v>
       </c>
       <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="27">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="N27" s="28">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="O27" s="52"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="20"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
@@ -2318,31 +2620,43 @@
       <c r="BA27" s="6"/>
       <c r="BB27" s="6"/>
       <c r="BC27" s="6"/>
-      <c r="BD27" s="6"/>
-      <c r="BE27" s="6"/>
-    </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="C28" s="27">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D28" s="27">
+        <v>0.24299999999999999</v>
+      </c>
       <c r="E28" s="21"/>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="G28" s="27">
+        <v>0.193</v>
+      </c>
+      <c r="H28" s="27">
+        <v>0.23799999999999999</v>
+      </c>
       <c r="I28" s="21"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="34">
+        <v>18</v>
+      </c>
+      <c r="N28" s="51">
+        <v>17</v>
+      </c>
+      <c r="O28" s="53"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="20"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
@@ -2381,31 +2695,47 @@
       <c r="BA28" s="6"/>
       <c r="BB28" s="6"/>
       <c r="BC28" s="6"/>
-      <c r="BD28" s="6"/>
-      <c r="BE28" s="6"/>
-    </row>
-    <row r="29" spans="1:57" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:55" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19"/>
       <c r="B29" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="38" t="s">
+      <c r="C29" s="34">
+        <v>18</v>
+      </c>
+      <c r="D29" s="34">
+        <v>18</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="G29" s="34">
+        <v>18</v>
+      </c>
+      <c r="H29" s="34">
+        <v>17</v>
+      </c>
+      <c r="I29" s="23"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="K29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="N29" s="28">
+        <v>-0.35299999999999998</v>
+      </c>
+      <c r="O29" s="48">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="44"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
@@ -2444,37 +2774,49 @@
       <c r="BA29" s="13"/>
       <c r="BB29" s="13"/>
       <c r="BC29" s="13"/>
-      <c r="BD29" s="13"/>
-      <c r="BE29" s="13"/>
-    </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+      <c r="C30" s="27">
+        <v>-2.5600000000000001E-2</v>
+      </c>
+      <c r="D30" s="27">
+        <v>0.32700000000000001</v>
+      </c>
       <c r="E30" s="21">
         <v>0.41</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="G30" s="27">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="H30" s="27">
+        <v>-0.32700000000000001</v>
+      </c>
       <c r="I30" s="21">
         <v>0.2</v>
       </c>
       <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="27">
+        <v>0.42109999999999997</v>
+      </c>
+      <c r="N30" s="28">
+        <v>0.27</v>
+      </c>
+      <c r="O30" s="52"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="20"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
@@ -2513,31 +2855,43 @@
       <c r="BA30" s="6"/>
       <c r="BB30" s="6"/>
       <c r="BC30" s="6"/>
-      <c r="BD30" s="6"/>
-      <c r="BE30" s="6"/>
-    </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
+      <c r="C31" s="27">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="D31" s="27">
+        <v>0.27200000000000002</v>
+      </c>
       <c r="E31" s="21"/>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="G31" s="27">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="H31" s="27">
+        <v>0.16600000000000001</v>
+      </c>
       <c r="I31" s="21"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="34">
+        <v>18</v>
+      </c>
+      <c r="N31" s="51">
+        <v>18</v>
+      </c>
+      <c r="O31" s="53"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="20"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
@@ -2576,31 +2930,47 @@
       <c r="BA31" s="6"/>
       <c r="BB31" s="6"/>
       <c r="BC31" s="6"/>
-      <c r="BD31" s="6"/>
-      <c r="BE31" s="6"/>
-    </row>
-    <row r="32" spans="1:57" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="38" t="s">
+      <c r="C32" s="34">
+        <v>18</v>
+      </c>
+      <c r="D32" s="34">
+        <v>18</v>
+      </c>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
+      <c r="G32" s="34">
+        <v>18</v>
+      </c>
+      <c r="H32" s="34">
+        <v>18</v>
+      </c>
+      <c r="I32" s="22"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
+      <c r="K32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="27">
+        <v>4.444</v>
+      </c>
+      <c r="N32" s="28">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="O32" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="20"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
@@ -2639,10 +3009,8 @@
       <c r="BA32" s="6"/>
       <c r="BB32" s="6"/>
       <c r="BC32" s="6"/>
-      <c r="BD32" s="6"/>
-      <c r="BE32" s="6"/>
-    </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>19</v>
       </c>
@@ -2655,10 +3023,10 @@
       <c r="D33" s="20">
         <v>58.1</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="26" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="20">
@@ -2671,13 +3039,19 @@
         <v>0.39</v>
       </c>
       <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="27">
+        <v>0.98</v>
+      </c>
+      <c r="N33" s="28">
+        <v>1.21</v>
+      </c>
+      <c r="O33" s="52"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
@@ -2716,10 +3090,8 @@
       <c r="BA33" s="6"/>
       <c r="BB33" s="6"/>
       <c r="BC33" s="6"/>
-      <c r="BD33" s="6"/>
-      <c r="BE33" s="6"/>
-    </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="17" t="s">
         <v>20</v>
@@ -2731,7 +3103,7 @@
         <v>2.77</v>
       </c>
       <c r="E34" s="21"/>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="20">
@@ -2742,13 +3114,19 @@
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="34">
+        <v>18</v>
+      </c>
+      <c r="N34" s="51">
+        <v>18</v>
+      </c>
+      <c r="O34" s="46"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
@@ -2787,39 +3165,32 @@
       <c r="BA34" s="6"/>
       <c r="BB34" s="6"/>
       <c r="BC34" s="6"/>
-      <c r="BD34" s="6"/>
-      <c r="BE34" s="6"/>
-    </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="34">
         <v>18</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="34">
         <v>18</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="38" t="s">
+      <c r="E35" s="35"/>
+      <c r="F35" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="34">
         <v>18</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="34">
         <v>18</v>
       </c>
-      <c r="I35" s="23"/>
+      <c r="I35" s="22"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="20"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
@@ -2858,18 +3229,14 @@
       <c r="BA35" s="6"/>
       <c r="BB35" s="6"/>
       <c r="BC35" s="6"/>
-      <c r="BD35" s="6"/>
-      <c r="BE35" s="6"/>
-    </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.35">
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -2908,18 +3275,14 @@
       <c r="BA36" s="6"/>
       <c r="BB36" s="6"/>
       <c r="BC36" s="6"/>
-      <c r="BD36" s="6"/>
-      <c r="BE36" s="6"/>
-    </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.35">
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
@@ -2958,18 +3321,14 @@
       <c r="BA37" s="6"/>
       <c r="BB37" s="6"/>
       <c r="BC37" s="6"/>
-      <c r="BD37" s="6"/>
-      <c r="BE37" s="6"/>
-    </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:55" x14ac:dyDescent="0.35">
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
@@ -3008,18 +3367,14 @@
       <c r="BA38" s="6"/>
       <c r="BB38" s="6"/>
       <c r="BC38" s="6"/>
-      <c r="BD38" s="6"/>
-      <c r="BE38" s="6"/>
-    </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.35">
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
@@ -3058,18 +3413,14 @@
       <c r="BA39" s="6"/>
       <c r="BB39" s="6"/>
       <c r="BC39" s="6"/>
-      <c r="BD39" s="6"/>
-      <c r="BE39" s="6"/>
-    </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:55" x14ac:dyDescent="0.35">
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
@@ -3108,18 +3459,14 @@
       <c r="BA40" s="6"/>
       <c r="BB40" s="6"/>
       <c r="BC40" s="6"/>
-      <c r="BD40" s="6"/>
-      <c r="BE40" s="6"/>
-    </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:55" x14ac:dyDescent="0.35">
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
@@ -3158,18 +3505,14 @@
       <c r="BA41" s="6"/>
       <c r="BB41" s="6"/>
       <c r="BC41" s="6"/>
-      <c r="BD41" s="6"/>
-      <c r="BE41" s="6"/>
-    </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:55" x14ac:dyDescent="0.35">
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
@@ -3208,18 +3551,14 @@
       <c r="BA42" s="6"/>
       <c r="BB42" s="6"/>
       <c r="BC42" s="6"/>
-      <c r="BD42" s="6"/>
-      <c r="BE42" s="6"/>
-    </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:55" x14ac:dyDescent="0.35">
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
@@ -3258,18 +3597,14 @@
       <c r="BA43" s="6"/>
       <c r="BB43" s="6"/>
       <c r="BC43" s="6"/>
-      <c r="BD43" s="6"/>
-      <c r="BE43" s="6"/>
-    </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:55" x14ac:dyDescent="0.35">
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
@@ -3308,18 +3643,14 @@
       <c r="BA44" s="6"/>
       <c r="BB44" s="6"/>
       <c r="BC44" s="6"/>
-      <c r="BD44" s="6"/>
-      <c r="BE44" s="6"/>
-    </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:55" x14ac:dyDescent="0.35">
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
@@ -3358,18 +3689,14 @@
       <c r="BA45" s="6"/>
       <c r="BB45" s="6"/>
       <c r="BC45" s="6"/>
-      <c r="BD45" s="6"/>
-      <c r="BE45" s="6"/>
-    </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:55" x14ac:dyDescent="0.35">
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
@@ -3408,18 +3735,14 @@
       <c r="BA46" s="6"/>
       <c r="BB46" s="6"/>
       <c r="BC46" s="6"/>
-      <c r="BD46" s="6"/>
-      <c r="BE46" s="6"/>
-    </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.35">
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
@@ -3458,18 +3781,14 @@
       <c r="BA47" s="6"/>
       <c r="BB47" s="6"/>
       <c r="BC47" s="6"/>
-      <c r="BD47" s="6"/>
-      <c r="BE47" s="6"/>
-    </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:55" x14ac:dyDescent="0.35">
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
@@ -3508,18 +3827,14 @@
       <c r="BA48" s="6"/>
       <c r="BB48" s="6"/>
       <c r="BC48" s="6"/>
-      <c r="BD48" s="6"/>
-      <c r="BE48" s="6"/>
-    </row>
-    <row r="49" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
@@ -3558,18 +3873,14 @@
       <c r="BA49" s="6"/>
       <c r="BB49" s="6"/>
       <c r="BC49" s="6"/>
-      <c r="BD49" s="6"/>
-      <c r="BE49" s="6"/>
-    </row>
-    <row r="50" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
@@ -3608,18 +3919,14 @@
       <c r="BA50" s="6"/>
       <c r="BB50" s="6"/>
       <c r="BC50" s="6"/>
-      <c r="BD50" s="6"/>
-      <c r="BE50" s="6"/>
-    </row>
-    <row r="51" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
@@ -3658,18 +3965,14 @@
       <c r="BA51" s="6"/>
       <c r="BB51" s="6"/>
       <c r="BC51" s="6"/>
-      <c r="BD51" s="6"/>
-      <c r="BE51" s="6"/>
-    </row>
-    <row r="52" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
@@ -3708,18 +4011,14 @@
       <c r="BA52" s="6"/>
       <c r="BB52" s="6"/>
       <c r="BC52" s="6"/>
-      <c r="BD52" s="6"/>
-      <c r="BE52" s="6"/>
-    </row>
-    <row r="53" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
@@ -3758,18 +4057,14 @@
       <c r="BA53" s="6"/>
       <c r="BB53" s="6"/>
       <c r="BC53" s="6"/>
-      <c r="BD53" s="6"/>
-      <c r="BE53" s="6"/>
-    </row>
-    <row r="54" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
@@ -3808,18 +4103,14 @@
       <c r="BA54" s="6"/>
       <c r="BB54" s="6"/>
       <c r="BC54" s="6"/>
-      <c r="BD54" s="6"/>
-      <c r="BE54" s="6"/>
-    </row>
-    <row r="55" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
@@ -3858,18 +4149,14 @@
       <c r="BA55" s="6"/>
       <c r="BB55" s="6"/>
       <c r="BC55" s="6"/>
-      <c r="BD55" s="6"/>
-      <c r="BE55" s="6"/>
-    </row>
-    <row r="56" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
@@ -3908,18 +4195,14 @@
       <c r="BA56" s="6"/>
       <c r="BB56" s="6"/>
       <c r="BC56" s="6"/>
-      <c r="BD56" s="6"/>
-      <c r="BE56" s="6"/>
-    </row>
-    <row r="57" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
@@ -3958,18 +4241,14 @@
       <c r="BA57" s="6"/>
       <c r="BB57" s="6"/>
       <c r="BC57" s="6"/>
-      <c r="BD57" s="6"/>
-      <c r="BE57" s="6"/>
-    </row>
-    <row r="58" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
@@ -4008,18 +4287,14 @@
       <c r="BA58" s="6"/>
       <c r="BB58" s="6"/>
       <c r="BC58" s="6"/>
-      <c r="BD58" s="6"/>
-      <c r="BE58" s="6"/>
-    </row>
-    <row r="59" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
@@ -4058,18 +4333,14 @@
       <c r="BA59" s="6"/>
       <c r="BB59" s="6"/>
       <c r="BC59" s="6"/>
-      <c r="BD59" s="6"/>
-      <c r="BE59" s="6"/>
-    </row>
-    <row r="60" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
@@ -4108,18 +4379,14 @@
       <c r="BA60" s="6"/>
       <c r="BB60" s="6"/>
       <c r="BC60" s="6"/>
-      <c r="BD60" s="6"/>
-      <c r="BE60" s="6"/>
-    </row>
-    <row r="61" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
@@ -4158,18 +4425,14 @@
       <c r="BA61" s="6"/>
       <c r="BB61" s="6"/>
       <c r="BC61" s="6"/>
-      <c r="BD61" s="6"/>
-      <c r="BE61" s="6"/>
-    </row>
-    <row r="62" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
@@ -4208,18 +4471,14 @@
       <c r="BA62" s="6"/>
       <c r="BB62" s="6"/>
       <c r="BC62" s="6"/>
-      <c r="BD62" s="6"/>
-      <c r="BE62" s="6"/>
-    </row>
-    <row r="63" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
@@ -4258,18 +4517,14 @@
       <c r="BA63" s="6"/>
       <c r="BB63" s="6"/>
       <c r="BC63" s="6"/>
-      <c r="BD63" s="6"/>
-      <c r="BE63" s="6"/>
-    </row>
-    <row r="64" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="6"/>
@@ -4308,18 +4563,14 @@
       <c r="BA64" s="6"/>
       <c r="BB64" s="6"/>
       <c r="BC64" s="6"/>
-      <c r="BD64" s="6"/>
-      <c r="BE64" s="6"/>
-    </row>
-    <row r="65" spans="10:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="10:55" x14ac:dyDescent="0.35">
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
       <c r="T65" s="6"/>
@@ -4358,8 +4609,6 @@
       <c r="BA65" s="6"/>
       <c r="BB65" s="6"/>
       <c r="BC65" s="6"/>
-      <c r="BD65" s="6"/>
-      <c r="BE65" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/GiDietPhys.xlsx
+++ b/output/GiDietPhys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usu-my.sharepoint.com/personal/a02308724_aggies_usu_edu/Documents/Desktop/ASU green iguana 2021/greeniguanaAnalysis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="8_{900FFE36-CE08-4829-B466-D22F1D4444E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B79CAAD-306B-4582-BE38-FA4C33E4985F}"/>
+  <xr:revisionPtr revIDLastSave="365" documentId="8_{900FFE36-CE08-4829-B466-D22F1D4444E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795E205A-26D5-4A5E-BBD3-9566CB793451}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C910DBE3-F025-4A65-8898-D5F08109D607}"/>
+    <workbookView xWindow="28680" yWindow="-1470" windowWidth="25440" windowHeight="15390" xr2:uid="{C910DBE3-F025-4A65-8898-D5F08109D607}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="25">
   <si>
     <t>Water Group</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Δ in dextrose group after diet treatment</t>
+  </si>
+  <si>
+    <t>interpretations</t>
+  </si>
+  <si>
+    <t>Glucose treatment was successful in altering physiological biomarkers in dextrose group for BKA, glucose, glycerol, total triglycerides, true triglycerides and mass. However, when comparing the change in biomarker measurement after diet treatment when comparing across treatment groups, we only found a significant effect in energy metabolites.</t>
   </si>
 </sst>
 </file>
@@ -411,9 +417,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -449,6 +452,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B60E61-B073-46FB-97F3-57E4E75BC566}">
   <dimension ref="A1:BC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -778,7 +784,9 @@
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="13" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="17" width="8.7265625" style="6"/>
+    <col min="16" max="16" width="8.7265625" style="6"/>
+    <col min="17" max="17" width="17.453125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
@@ -803,16 +811,15 @@
       <c r="M1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="46" t="s">
         <v>21</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-    </row>
-    <row r="2" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:55" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -846,14 +853,16 @@
       <c r="M2" s="24">
         <v>-33.345999999999997</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="48">
         <v>-17.513999999999999</v>
       </c>
-      <c r="O2" s="48">
+      <c r="O2" s="47">
         <v>0.187</v>
       </c>
       <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
+      <c r="Q2" s="40" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -893,9 +902,11 @@
       <c r="N3" s="28">
         <v>9.8930000000000007</v>
       </c>
-      <c r="O3" s="45"/>
+      <c r="O3" s="44"/>
       <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
+      <c r="Q3" s="53" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
@@ -929,7 +940,7 @@
       <c r="N4" s="35">
         <v>18</v>
       </c>
-      <c r="O4" s="46"/>
+      <c r="O4" s="45"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
     </row>
@@ -964,13 +975,13 @@
       <c r="M5" s="27">
         <v>0.25</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="49">
         <v>0.46600000000000003</v>
       </c>
-      <c r="O5" s="48">
+      <c r="O5" s="47">
         <v>0.66869999999999996</v>
       </c>
-      <c r="P5" s="42"/>
+      <c r="P5" s="41"/>
       <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.35">
@@ -1011,7 +1022,7 @@
       <c r="N6" s="28">
         <v>0.34300000000000003</v>
       </c>
-      <c r="O6" s="45"/>
+      <c r="O6" s="44"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="20"/>
     </row>
@@ -1047,7 +1058,7 @@
       <c r="N7" s="35">
         <v>15</v>
       </c>
-      <c r="O7" s="46"/>
+      <c r="O7" s="45"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="20"/>
     </row>
@@ -1083,13 +1094,13 @@
       <c r="M8" s="27">
         <v>0.20799999999999999</v>
       </c>
-      <c r="N8" s="50">
+      <c r="N8" s="49">
         <v>0.42199999999999999</v>
       </c>
-      <c r="O8" s="48">
+      <c r="O8" s="47">
         <v>0.70499999999999996</v>
       </c>
-      <c r="P8" s="42"/>
+      <c r="P8" s="41"/>
       <c r="Q8" s="20"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1169,7 +1180,7 @@
       <c r="N9" s="28">
         <v>0.439</v>
       </c>
-      <c r="O9" s="45"/>
+      <c r="O9" s="44"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="6"/>
@@ -1244,7 +1255,7 @@
       <c r="N10" s="35">
         <v>15</v>
       </c>
-      <c r="O10" s="46"/>
+      <c r="O10" s="45"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="6"/>
@@ -1318,13 +1329,13 @@
       <c r="M11" s="27">
         <v>126.833</v>
       </c>
-      <c r="N11" s="50">
+      <c r="N11" s="49">
         <v>47.944000000000003</v>
       </c>
       <c r="O11" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="42"/>
+      <c r="P11" s="41"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1404,7 +1415,7 @@
       <c r="N12" s="28">
         <v>17.309999999999999</v>
       </c>
-      <c r="O12" s="45"/>
+      <c r="O12" s="44"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="6"/>
@@ -1479,7 +1490,7 @@
       <c r="N13" s="35">
         <v>18</v>
       </c>
-      <c r="O13" s="46"/>
+      <c r="O13" s="45"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="6"/>
@@ -1553,13 +1564,13 @@
       <c r="M14" s="27">
         <v>1.3720000000000001</v>
       </c>
-      <c r="N14" s="50">
+      <c r="N14" s="49">
         <v>0.28660000000000002</v>
       </c>
       <c r="O14" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="42"/>
+      <c r="P14" s="41"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -1639,9 +1650,9 @@
       <c r="N15" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O15" s="45"/>
+      <c r="O15" s="44"/>
       <c r="P15" s="37"/>
-      <c r="Q15" s="43"/>
+      <c r="Q15" s="42"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -1714,7 +1725,7 @@
       <c r="N16" s="35">
         <v>15</v>
       </c>
-      <c r="O16" s="46"/>
+      <c r="O16" s="45"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="6"/>
@@ -1788,13 +1799,13 @@
       <c r="M17" s="27">
         <v>2.536</v>
       </c>
-      <c r="N17" s="50">
+      <c r="N17" s="49">
         <v>-2E-3</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="42"/>
+      <c r="P17" s="41"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -1874,7 +1885,7 @@
       <c r="N18" s="28">
         <v>0.17</v>
       </c>
-      <c r="O18" s="45"/>
+      <c r="O18" s="44"/>
       <c r="P18" s="27"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="6"/>
@@ -1949,7 +1960,7 @@
       <c r="N19" s="35">
         <v>15</v>
       </c>
-      <c r="O19" s="46"/>
+      <c r="O19" s="45"/>
       <c r="P19" s="27"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="6"/>
@@ -2023,13 +2034,13 @@
       <c r="M20" s="27">
         <v>1.369</v>
       </c>
-      <c r="N20" s="49">
+      <c r="N20" s="48">
         <v>-0.25600000000000001</v>
       </c>
       <c r="O20" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="42"/>
+      <c r="P20" s="41"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
@@ -2106,10 +2117,10 @@
       <c r="M21" s="27">
         <v>0.42699999999999999</v>
       </c>
-      <c r="N21" s="50">
+      <c r="N21" s="49">
         <v>0.14199999999999999</v>
       </c>
-      <c r="O21" s="45"/>
+      <c r="O21" s="44"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="6"/>
@@ -2181,10 +2192,10 @@
       <c r="M22" s="34">
         <v>17</v>
       </c>
-      <c r="N22" s="51">
+      <c r="N22" s="50">
         <v>15</v>
       </c>
-      <c r="O22" s="46"/>
+      <c r="O22" s="45"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="20"/>
       <c r="R22" s="6"/>
@@ -2261,10 +2272,10 @@
       <c r="N23" s="28">
         <v>-0.64200000000000002</v>
       </c>
-      <c r="O23" s="48">
+      <c r="O23" s="47">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="P23" s="42"/>
+      <c r="P23" s="41"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
@@ -2344,7 +2355,7 @@
       <c r="N24" s="28">
         <v>0.54900000000000004</v>
       </c>
-      <c r="O24" s="45"/>
+      <c r="O24" s="44"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="6"/>
@@ -2416,10 +2427,10 @@
       <c r="M25" s="34">
         <v>18</v>
       </c>
-      <c r="N25" s="51">
+      <c r="N25" s="50">
         <v>17</v>
       </c>
-      <c r="O25" s="46"/>
+      <c r="O25" s="45"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="6"/>
@@ -2496,10 +2507,10 @@
       <c r="N26" s="28">
         <v>0.35</v>
       </c>
-      <c r="O26" s="48">
+      <c r="O26" s="47">
         <v>0.13700000000000001</v>
       </c>
-      <c r="P26" s="42"/>
+      <c r="P26" s="41"/>
       <c r="Q26" s="20"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
@@ -2579,7 +2590,7 @@
       <c r="N27" s="28">
         <v>0.34499999999999997</v>
       </c>
-      <c r="O27" s="52"/>
+      <c r="O27" s="51"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="6"/>
@@ -2651,10 +2662,10 @@
       <c r="M28" s="34">
         <v>18</v>
       </c>
-      <c r="N28" s="51">
+      <c r="N28" s="50">
         <v>17</v>
       </c>
-      <c r="O28" s="53"/>
+      <c r="O28" s="52"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="6"/>
@@ -2731,11 +2742,11 @@
       <c r="N29" s="28">
         <v>-0.35299999999999998</v>
       </c>
-      <c r="O29" s="48">
+      <c r="O29" s="47">
         <v>0.16800000000000001</v>
       </c>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="44"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="43"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
@@ -2814,7 +2825,7 @@
       <c r="N30" s="28">
         <v>0.27</v>
       </c>
-      <c r="O30" s="52"/>
+      <c r="O30" s="51"/>
       <c r="P30" s="27"/>
       <c r="Q30" s="20"/>
       <c r="R30" s="6"/>
@@ -2886,10 +2897,10 @@
       <c r="M31" s="34">
         <v>18</v>
       </c>
-      <c r="N31" s="51">
+      <c r="N31" s="50">
         <v>18</v>
       </c>
-      <c r="O31" s="53"/>
+      <c r="O31" s="52"/>
       <c r="P31" s="27"/>
       <c r="Q31" s="20"/>
       <c r="R31" s="6"/>
@@ -2969,7 +2980,7 @@
       <c r="O32" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="42"/>
+      <c r="P32" s="41"/>
       <c r="Q32" s="20"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
@@ -3049,7 +3060,7 @@
       <c r="N33" s="28">
         <v>1.21</v>
       </c>
-      <c r="O33" s="52"/>
+      <c r="O33" s="51"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="20"/>
       <c r="R33" s="6"/>
@@ -3121,10 +3132,10 @@
       <c r="M34" s="34">
         <v>18</v>
       </c>
-      <c r="N34" s="51">
+      <c r="N34" s="50">
         <v>18</v>
       </c>
-      <c r="O34" s="46"/>
+      <c r="O34" s="45"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="6"/>
@@ -3189,7 +3200,7 @@
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="6"/>
-      <c r="P35" s="42"/>
+      <c r="P35" s="41"/>
       <c r="Q35" s="20"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>

--- a/output/GiDietPhys.xlsx
+++ b/output/GiDietPhys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usu-my.sharepoint.com/personal/a02308724_aggies_usu_edu/Documents/Desktop/ASU green iguana 2021/greeniguanaAnalysis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="365" documentId="8_{900FFE36-CE08-4829-B466-D22F1D4444E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795E205A-26D5-4A5E-BBD3-9566CB793451}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="8_{900FFE36-CE08-4829-B466-D22F1D4444E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E1AD763-A0F6-4974-BCF1-542D2A1D0B59}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1470" windowWidth="25440" windowHeight="15390" xr2:uid="{C910DBE3-F025-4A65-8898-D5F08109D607}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C910DBE3-F025-4A65-8898-D5F08109D607}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
     <t>interpretations</t>
   </si>
   <si>
-    <t>Glucose treatment was successful in altering physiological biomarkers in dextrose group for BKA, glucose, glycerol, total triglycerides, true triglycerides and mass. However, when comparing the change in biomarker measurement after diet treatment when comparing across treatment groups, we only found a significant effect in energy metabolites.</t>
+    <t>Glucose treatment was successful in altering physiological biomarkers in dextrose group for BKA, glucose, glycerol, total triglycerides, true triglycerides and mass. Water group, for obviosu reasons, had unchanged biomarkers. However, when comparing the change in biomarker measurement after diet treatment when comparing across treatment groups, we only found a significant effect in energy metabolites.</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B60E61-B073-46FB-97F3-57E4E75BC566}">
   <dimension ref="A1:BC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>

--- a/output/GiDietPhys.xlsx
+++ b/output/GiDietPhys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usu-my.sharepoint.com/personal/a02308724_aggies_usu_edu/Documents/Desktop/ASU green iguana 2021/greeniguanaAnalysis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="8_{900FFE36-CE08-4829-B466-D22F1D4444E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E1AD763-A0F6-4974-BCF1-542D2A1D0B59}"/>
+  <xr:revisionPtr revIDLastSave="367" documentId="8_{900FFE36-CE08-4829-B466-D22F1D4444E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3D2B8E8-A633-4F65-A704-569227E4D90D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C910DBE3-F025-4A65-8898-D5F08109D607}"/>
+    <workbookView xWindow="28680" yWindow="-1470" windowWidth="25440" windowHeight="15390" xr2:uid="{C910DBE3-F025-4A65-8898-D5F08109D607}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
   <si>
     <t>Water Group</t>
   </si>
@@ -98,18 +98,6 @@
   <si>
     <t>SE</t>
   </si>
-  <si>
-    <t>Δ in water group after diet treatment</t>
-  </si>
-  <si>
-    <t>Δ in dextrose group after diet treatment</t>
-  </si>
-  <si>
-    <t>interpretations</t>
-  </si>
-  <si>
-    <t>Glucose treatment was successful in altering physiological biomarkers in dextrose group for BKA, glucose, glycerol, total triglycerides, true triglycerides and mass. Water group, for obviosu reasons, had unchanged biomarkers. However, when comparing the change in biomarker measurement after diet treatment when comparing across treatment groups, we only found a significant effect in energy metabolites.</t>
-  </si>
 </sst>
 </file>
 
@@ -119,7 +107,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,13 +139,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -305,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -408,53 +389,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B60E61-B073-46FB-97F3-57E4E75BC566}">
   <dimension ref="A1:BC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -789,7 +725,7 @@
     <col min="18" max="18" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="15"/>
       <c r="C1" s="11" t="s">
@@ -804,22 +740,8 @@
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="40"/>
-    </row>
-    <row r="2" spans="1:55" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -844,25 +766,6 @@
         <v>8</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="24">
-        <v>-33.345999999999997</v>
-      </c>
-      <c r="N2" s="48">
-        <v>-17.513999999999999</v>
-      </c>
-      <c r="O2" s="47">
-        <v>0.187</v>
-      </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -891,21 +794,6 @@
       </c>
       <c r="I3" s="25">
         <v>0.08</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="27">
-        <v>6.2969999999999997</v>
-      </c>
-      <c r="N3" s="28">
-        <v>9.8930000000000007</v>
-      </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="53" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.35">
@@ -930,19 +818,6 @@
         <v>5.3</v>
       </c>
       <c r="I4" s="28"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="34">
-        <v>18</v>
-      </c>
-      <c r="N4" s="35">
-        <v>18</v>
-      </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
@@ -966,23 +841,6 @@
         <v>18</v>
       </c>
       <c r="I5" s="30"/>
-      <c r="K5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="N5" s="49">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="O5" s="47">
-        <v>0.66869999999999996</v>
-      </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
@@ -1012,19 +870,6 @@
       <c r="I6" s="21">
         <v>0.19</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="27">
-        <v>0.36</v>
-      </c>
-      <c r="N6" s="28">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="O6" s="44"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
@@ -1048,19 +893,6 @@
         <v>0.26900000000000002</v>
       </c>
       <c r="I7" s="21"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="34">
-        <v>16</v>
-      </c>
-      <c r="N7" s="35">
-        <v>15</v>
-      </c>
-      <c r="O7" s="45"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -1085,24 +917,6 @@
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="27">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="N8" s="49">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="O8" s="47">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -1170,20 +984,6 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="27">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="N9" s="28">
-        <v>0.439</v>
-      </c>
-      <c r="O9" s="44"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -1245,20 +1045,6 @@
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="34">
-        <v>16</v>
-      </c>
-      <c r="N10" s="35">
-        <v>15</v>
-      </c>
-      <c r="O10" s="45"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
@@ -1320,24 +1106,6 @@
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="27">
-        <v>126.833</v>
-      </c>
-      <c r="N11" s="49">
-        <v>47.944000000000003</v>
-      </c>
-      <c r="O11" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -1405,20 +1173,6 @@
         <v>0.13</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="27">
-        <v>24.036999999999999</v>
-      </c>
-      <c r="N12" s="28">
-        <v>17.309999999999999</v>
-      </c>
-      <c r="O12" s="44"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -1480,20 +1234,6 @@
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="34">
-        <v>18</v>
-      </c>
-      <c r="N13" s="35">
-        <v>18</v>
-      </c>
-      <c r="O13" s="45"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -1555,24 +1295,6 @@
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="27">
-        <v>1.3720000000000001</v>
-      </c>
-      <c r="N14" s="49">
-        <v>0.28660000000000002</v>
-      </c>
-      <c r="O14" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
@@ -1640,20 +1362,6 @@
         <v>4</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="27">
-        <v>0.436</v>
-      </c>
-      <c r="N15" s="28">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O15" s="44"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -1715,20 +1423,6 @@
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M16" s="34">
-        <v>17</v>
-      </c>
-      <c r="N16" s="35">
-        <v>15</v>
-      </c>
-      <c r="O16" s="45"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -1790,24 +1484,6 @@
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="27">
-        <v>2.536</v>
-      </c>
-      <c r="N17" s="49">
-        <v>-2E-3</v>
-      </c>
-      <c r="O17" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -1875,20 +1551,6 @@
         <v>0.99</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="27">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="N18" s="28">
-        <v>0.17</v>
-      </c>
-      <c r="O18" s="44"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
@@ -1950,20 +1612,6 @@
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M19" s="34">
-        <v>17</v>
-      </c>
-      <c r="N19" s="35">
-        <v>15</v>
-      </c>
-      <c r="O19" s="45"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
@@ -2025,24 +1673,6 @@
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" s="27">
-        <v>1.369</v>
-      </c>
-      <c r="N20" s="48">
-        <v>-0.25600000000000001</v>
-      </c>
-      <c r="O20" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
@@ -2110,20 +1740,6 @@
         <v>0.09</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="27">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="N21" s="49">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="O21" s="44"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
@@ -2185,20 +1801,6 @@
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M22" s="34">
-        <v>17</v>
-      </c>
-      <c r="N22" s="50">
-        <v>15</v>
-      </c>
-      <c r="O22" s="45"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -2260,24 +1862,6 @@
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M23" s="27">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="N23" s="28">
-        <v>-0.64200000000000002</v>
-      </c>
-      <c r="O23" s="47">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
@@ -2345,20 +1929,6 @@
         <v>0.25</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="27">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="N24" s="28">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="O24" s="44"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
@@ -2420,20 +1990,6 @@
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M25" s="34">
-        <v>18</v>
-      </c>
-      <c r="N25" s="50">
-        <v>17</v>
-      </c>
-      <c r="O25" s="45"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
@@ -2495,24 +2051,6 @@
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M26" s="27">
-        <v>-0.37</v>
-      </c>
-      <c r="N26" s="28">
-        <v>0.35</v>
-      </c>
-      <c r="O26" s="47">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
@@ -2580,20 +2118,6 @@
         <v>0.314</v>
       </c>
       <c r="J27" s="6"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="27">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="N27" s="28">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="O27" s="51"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
@@ -2655,20 +2179,6 @@
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="34">
-        <v>18</v>
-      </c>
-      <c r="N28" s="50">
-        <v>17</v>
-      </c>
-      <c r="O28" s="52"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
@@ -2730,24 +2240,6 @@
       </c>
       <c r="I29" s="23"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M29" s="27">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="N29" s="28">
-        <v>-0.35299999999999998</v>
-      </c>
-      <c r="O29" s="47">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
@@ -2815,20 +2307,6 @@
         <v>0.2</v>
       </c>
       <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="27">
-        <v>0.42109999999999997</v>
-      </c>
-      <c r="N30" s="28">
-        <v>0.27</v>
-      </c>
-      <c r="O30" s="51"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
@@ -2890,20 +2368,6 @@
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M31" s="34">
-        <v>18</v>
-      </c>
-      <c r="N31" s="50">
-        <v>18</v>
-      </c>
-      <c r="O31" s="52"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
@@ -2965,24 +2429,6 @@
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M32" s="27">
-        <v>4.444</v>
-      </c>
-      <c r="N32" s="28">
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="O32" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
@@ -3050,20 +2496,6 @@
         <v>0.39</v>
       </c>
       <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="27">
-        <v>0.98</v>
-      </c>
-      <c r="N33" s="28">
-        <v>1.21</v>
-      </c>
-      <c r="O33" s="51"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
@@ -3125,20 +2557,6 @@
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M34" s="34">
-        <v>18</v>
-      </c>
-      <c r="N34" s="50">
-        <v>18</v>
-      </c>
-      <c r="O34" s="45"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
@@ -3200,7 +2618,7 @@
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="6"/>
-      <c r="P35" s="41"/>
+      <c r="P35" s="38"/>
       <c r="Q35" s="20"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
